--- a/数据整理/stocks/A股/创业板/300348-长亮科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300348-长亮科技.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>139.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>89.35</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.15</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.3987</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>97.88</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2.03</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0719</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
       </c>
     </row>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -604,15 +644,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>91.26</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.93</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.5075</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -622,26 +672,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000166</t>
+          <t>009861</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中海信息产业精选混合</t>
+          <t>鹏华新兴成长混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>56.97</t>
+          <t>44.88</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>75.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7772</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -650,26 +710,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009861</t>
+          <t>159804</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鹏华新兴成长混合A</t>
+          <t>国寿安保国证创业板中盘精选88ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>75.91</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
+          <t>97.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -688,15 +758,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>75.91</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>3.96</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>4</v>
       </c>
     </row>
@@ -706,26 +786,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>159804</t>
+          <t>000166</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国寿安保国证创业板中盘精选88ETF</t>
+          <t>中海信息产业精选混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>97.97</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>3</v>
+          <t>56.97</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -744,15 +834,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>60.19</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1.96</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>6</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300348-长亮科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300348-长亮科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -859,4 +860,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>206009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>76.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.6141</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009861</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>43.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8203</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009862</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0487</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>970015</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>申万宏源红利成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>74.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159851</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝中证金融科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>97.80</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300348-长亮科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300348-长亮科技.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1106,4 +1107,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>206009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>62.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.6770</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>516100</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏中证金融科技主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159851</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝中证金融科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300348-长亮科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300348-长亮科技.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1277,4 +1278,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.73</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.54</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.42</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300348-长亮科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300348-长亮科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1286,7 +1287,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1297,17 +1298,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1317,14 +1338,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.73</v>
+          <t>206009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>60.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.8252</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1333,14 +1376,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>006573</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>人保行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0750</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.54</v>
       </c>
     </row>
     <row r="4">
@@ -1349,14 +1414,118 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>006574</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>人保行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.73</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>6.42</v>
+        <v>6.54</v>
       </c>
     </row>
     <row r="5">
@@ -1365,13 +1534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.42</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>4.47</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300348-长亮科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300348-长亮科技.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1455,7 +1456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1466,17 +1467,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1486,14 +1507,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>206009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3149</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>3.9</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="3">
@@ -1502,14 +1597,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>3.73</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="4">
@@ -1518,14 +1613,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>6.54</v>
+        <v>3.73</v>
       </c>
     </row>
     <row r="5">
@@ -1534,14 +1629,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>6.42</v>
+        <v>6.54</v>
       </c>
     </row>
     <row r="6">
@@ -1550,13 +1645,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.42</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>4.47</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300348-长亮科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300348-长亮科技.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,129 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>206009</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>鹏华新兴产业混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>139.64</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>89.35</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>4.3987</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.31</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>159804</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国寿安保国证创业板中盘精选88ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>97.88</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0719</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.73</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.54</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.42</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.47</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -588,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -649,216 +649,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>91.43</t>
+          <t>44.95</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.26</t>
+          <t>90.17</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.93</t>
+          <t>5.15</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4.5075</t>
+          <t>2.3149</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009861</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>鹏华新兴成长混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>44.88</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>75.91</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.7772</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>159804</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国寿安保国证创业板中盘精选88ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.14</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>97.97</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0462</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009862</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>鹏华新兴成长混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>75.91</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0455</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>000166</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中海信息产业精选混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>56.97</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0256</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
         <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>970015</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>申万宏源红利成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>60.19</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0178</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -872,7 +682,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -893,7 +703,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -933,26 +743,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>76.14</t>
+          <t>60.43</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.97</t>
+          <t>89.99</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.06</t>
+          <t>6.33</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4.6141</t>
+          <t>3.8252</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -961,36 +771,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009861</t>
+          <t>006573</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鹏华新兴成长混合A</t>
+          <t>人保行业轮动混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>43.34</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.36</t>
+          <t>86.87</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.8203</t>
+          <t>0.0750</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -999,112 +809,34 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009862</t>
+          <t>006574</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鹏华新兴成长混合C</t>
+          <t>人保行业轮动混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.36</t>
+          <t>86.87</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.20</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0487</t>
-        </is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>970015</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>申万宏源红利成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.79</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>74.08</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0431</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>159851</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华宝中证金融科技主题ETF</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>97.80</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0187</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1288,7 +1020,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,7 +1041,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1349,26 +1081,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>60.43</t>
+          <t>76.14</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.99</t>
+          <t>89.97</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.33</t>
+          <t>6.06</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.8252</t>
+          <t>4.6141</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1377,36 +1109,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006573</t>
+          <t>009861</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>人保行业轮动混合A</t>
+          <t>鹏华新兴成长混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>43.34</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>86.87</t>
+          <t>89.36</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0750</t>
+          <t>1.8203</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1415,34 +1147,112 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006574</t>
+          <t>009862</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>人保行业轮动混合C</t>
+          <t>鹏华新兴成长混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>86.87</t>
+          <t>89.36</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0487</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>970015</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>申万宏源红利成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>74.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>2.41</t>
         </is>
       </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159851</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝中证金融科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>97.80</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1456,7 +1266,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1477,7 +1287,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1517,26 +1327,216 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>44.95</t>
+          <t>91.43</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.17</t>
+          <t>91.26</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.15</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.3149</t>
+          <t>4.5075</t>
         </is>
       </c>
       <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009861</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>44.88</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>75.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7772</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159804</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国寿安保国证创业板中盘精选88ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>97.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009862</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>75.91</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000166</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中海信息产业精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>56.97</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>970015</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>申万宏源红利成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>60.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1550,128 +1550,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>206009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>139.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.3987</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
-        <v>2.31</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.73</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>6.54</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>6</v>
-      </c>
-      <c r="D6" t="n">
-        <v>6.42</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>4.47</v>
+          <t>159804</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国寿安保国证创业板中盘精选88ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0719</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300348-长亮科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300348-长亮科技.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>2.31</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>3.9</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>3.73</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>6.54</v>
+        <v>3.73</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>6.42</v>
+        <v>6.54</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6.42</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>4.47</v>
       </c>
     </row>
@@ -583,6 +600,214 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159851</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝中证金融科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159628</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家国证2000ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>516100</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏中证金融科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>96.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>516860</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时中证金融科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -668,174 +893,6 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>206009</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>鹏华新兴产业混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>60.43</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>89.99</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.33</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3.8252</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>006573</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>人保行业轮动混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>86.87</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0750</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>006574</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>人保行业轮动混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>86.87</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
         <v>5</v>
       </c>
     </row>
@@ -871,7 +928,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -911,26 +968,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>62.64</t>
+          <t>60.43</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.10</t>
+          <t>89.99</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.87</t>
+          <t>6.33</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.6770</t>
+          <t>3.8252</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -939,36 +996,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>516100</t>
+          <t>006573</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华夏中证金融科技主题交易型开放式指数证券投资基金</t>
+          <t>人保行业轮动混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>97.66</t>
+          <t>86.87</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0409</t>
+          <t>0.0750</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -977,36 +1034,34 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>159851</t>
+          <t>006574</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华宝中证金融科技主题ETF</t>
+          <t>人保行业轮动混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>98.52</t>
+          <t>86.87</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0152</t>
-        </is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1015,6 +1070,176 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>206009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>62.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.6770</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>516100</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏中证金融科技主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159851</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝中证金融科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1260,7 +1485,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1544,7 +1769,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300348-长亮科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300348-长亮科技.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.08</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>2.31</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>3.9</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>3.73</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>6.54</v>
+        <v>3.73</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>6.42</v>
+        <v>6.54</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6.42</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>4.47</v>
       </c>
     </row>
@@ -600,6 +617,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005313</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2119</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005314</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1883</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -807,7 +956,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -893,174 +1042,6 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>206009</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>鹏华新兴产业混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>60.43</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>89.99</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.33</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3.8252</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>006573</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>人保行业轮动混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>86.87</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0750</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>006574</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>人保行业轮动混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>86.87</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1096,7 +1077,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1136,26 +1117,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>62.64</t>
+          <t>60.43</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.10</t>
+          <t>89.99</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.87</t>
+          <t>6.33</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.6770</t>
+          <t>3.8252</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1164,36 +1145,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>516100</t>
+          <t>006573</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华夏中证金融科技主题交易型开放式指数证券投资基金</t>
+          <t>人保行业轮动混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>97.66</t>
+          <t>86.87</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0409</t>
+          <t>0.0750</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1202,36 +1183,34 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>159851</t>
+          <t>006574</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华宝中证金融科技主题ETF</t>
+          <t>人保行业轮动混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>98.52</t>
+          <t>86.87</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0152</t>
-        </is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1240,6 +1219,176 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>206009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>62.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.6770</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>516100</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏中证金融科技主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159851</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝中证金融科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1485,7 +1634,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1769,7 +1918,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
